--- a/data/trans_dic/P02E$nadie-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8882313705353275</v>
+        <v>0.8840804321365716</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.914679214682355</v>
+        <v>0.9164364389582496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9066090836845235</v>
+        <v>0.9077802839823708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.893308487535178</v>
+        <v>0.8972135342349432</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8952079794597672</v>
+        <v>0.8910138173547445</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8573304968059148</v>
+        <v>0.8532731698921675</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9091727833513935</v>
+        <v>0.9082604402402863</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.909902452512997</v>
+        <v>0.9103858673288633</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.885843665809289</v>
+        <v>0.8831896894047163</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.989320382665097</v>
+        <v>0.9890085239972167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9664437419270346</v>
+        <v>0.9681990823385093</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9628528885977743</v>
+        <v>0.9633912755323103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9604083229636471</v>
+        <v>0.9594703361944477</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9408661286257425</v>
+        <v>0.938250290536879</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9165131153997065</v>
+        <v>0.9129906603442807</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9604691930704702</v>
+        <v>0.9608169619759386</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9462063838073324</v>
+        <v>0.9470784462762278</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9279573811588854</v>
+        <v>0.9271930729822554</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9091027674084748</v>
+        <v>0.9066549286805674</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.867043727833572</v>
+        <v>0.866114406767041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8491329147474312</v>
+        <v>0.8498378275770012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9007021302332722</v>
+        <v>0.8996958507355145</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8980460511749677</v>
+        <v>0.8975153836516335</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8797044673644652</v>
+        <v>0.8716660475453514</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.912788777099055</v>
+        <v>0.9145782935949476</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8954756622497755</v>
+        <v>0.8980121725356429</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8795590396838622</v>
+        <v>0.8793887886893238</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9699655242905912</v>
+        <v>0.9707152577955281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9361792970619482</v>
+        <v>0.9354263444530708</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9376849026250806</v>
+        <v>0.9379062330596597</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9578320146011515</v>
+        <v>0.9556168810741138</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9462245629028952</v>
+        <v>0.9481743778489883</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9437656107792222</v>
+        <v>0.9414370022882361</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9558754783258537</v>
+        <v>0.9571761913613538</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9357641659947293</v>
+        <v>0.9373940666670345</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9313490066694954</v>
+        <v>0.9342086937576844</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8204354863824572</v>
+        <v>0.8280087437387607</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8634674727787158</v>
+        <v>0.8648611737923353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8237463971112731</v>
+        <v>0.8213872163392574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8586971835211997</v>
+        <v>0.8581173409626008</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8872478922033158</v>
+        <v>0.8800687128083607</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7873769562422278</v>
+        <v>0.7833861863140182</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8597191341491139</v>
+        <v>0.8562856619789329</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8883643855708803</v>
+        <v>0.887204609881043</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8181256534200266</v>
+        <v>0.8205511898291973</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9107320102003764</v>
+        <v>0.9134833585357538</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9379950239249858</v>
+        <v>0.9383055040448883</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9209478261405881</v>
+        <v>0.9177276163036993</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9298359098332593</v>
+        <v>0.9279313574018483</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9455661316436995</v>
+        <v>0.9422086896887216</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8864233822559046</v>
+        <v>0.8868797791007074</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9135250752648167</v>
+        <v>0.9112152397818211</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9339324636540003</v>
+        <v>0.9330845002571583</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8890235358145688</v>
+        <v>0.8904792783119718</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6669057239957698</v>
+        <v>0.6683697232254956</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.809190709083941</v>
+        <v>0.8045991812969439</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8707757496524617</v>
+        <v>0.8627762083369419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7478574939103709</v>
+        <v>0.7503171232414797</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.803956848038518</v>
+        <v>0.8182617812366612</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7486620289163213</v>
+        <v>0.7501484068541355</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7465315430913865</v>
+        <v>0.7480228673858081</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8353162983020932</v>
+        <v>0.8318944460227743</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.81415445779044</v>
+        <v>0.8150633300848014</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.856632362228705</v>
+        <v>0.8541686323055923</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.930958490877772</v>
+        <v>0.9315552444658134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9760489754374964</v>
+        <v>0.9759129267929089</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9104028594111715</v>
+        <v>0.9113860504999441</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9163101118857622</v>
+        <v>0.9268832013227195</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8821617562015583</v>
+        <v>0.8832171123029858</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8670141455738108</v>
+        <v>0.8753698512212927</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9152954345094534</v>
+        <v>0.9168849343899014</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.905051209357466</v>
+        <v>0.9040434524115024</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8715806593728553</v>
+        <v>0.8717049529688351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8964024361415769</v>
+        <v>0.8976137515501029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.893357638500381</v>
+        <v>0.8926621967117938</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8963714305599224</v>
+        <v>0.8972256921403829</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8999549189044426</v>
+        <v>0.9012969816213836</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8560367195384982</v>
+        <v>0.8576811269381536</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8935004278849465</v>
+        <v>0.8937737173081735</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9044926737963485</v>
+        <v>0.9039879559192917</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8773018689087292</v>
+        <v>0.8770170004661292</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9216462408810336</v>
+        <v>0.9197055874119199</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9327873449101296</v>
+        <v>0.9329242574370196</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9336618445596042</v>
+        <v>0.9330589086040015</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9334752013950613</v>
+        <v>0.9307809020569175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9299975016799208</v>
+        <v>0.9292938623494448</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.896355728215665</v>
+        <v>0.8972601718376033</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9221960584315142</v>
+        <v>0.9237851742846734</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9272591563801327</v>
+        <v>0.9268669245623361</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9064525494973824</v>
+        <v>0.9064771193714121</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>69620</v>
+        <v>69295</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>294940</v>
+        <v>295507</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>265142</v>
+        <v>265485</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>246634</v>
+        <v>247713</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>459816</v>
+        <v>457662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>385317</v>
+        <v>383493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>322276</v>
+        <v>321953</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>760763</v>
+        <v>761167</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>657201</v>
+        <v>655232</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>77544</v>
+        <v>77519</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>311632</v>
+        <v>312198</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>281591</v>
+        <v>281749</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>265160</v>
+        <v>264901</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>483268</v>
+        <v>481925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>411916</v>
+        <v>410333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>340459</v>
+        <v>340583</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>791117</v>
+        <v>791846</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>688445</v>
+        <v>687878</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>200104</v>
+        <v>199565</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>245691</v>
+        <v>245427</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>161007</v>
+        <v>161141</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>309406</v>
+        <v>309060</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>424299</v>
+        <v>424048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>270931</v>
+        <v>268456</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>514472</v>
+        <v>515481</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>676832</v>
+        <v>678749</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>437663</v>
+        <v>437579</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>213500</v>
+        <v>213665</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>265281</v>
+        <v>265068</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>177798</v>
+        <v>177840</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>329031</v>
+        <v>328270</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>447062</v>
+        <v>447983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>290661</v>
+        <v>289944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>538757</v>
+        <v>539490</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>707283</v>
+        <v>708515</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>463434</v>
+        <v>464857</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>207377</v>
+        <v>209291</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>201035</v>
+        <v>201360</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>155869</v>
+        <v>155423</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>246299</v>
+        <v>246133</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>311585</v>
+        <v>309063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>160844</v>
+        <v>160029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>463898</v>
+        <v>462046</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>518808</v>
+        <v>518131</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>321931</v>
+        <v>322885</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>230200</v>
+        <v>230896</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>218387</v>
+        <v>218459</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>174262</v>
+        <v>173652</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>266704</v>
+        <v>266158</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>332065</v>
+        <v>330886</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>181077</v>
+        <v>181170</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>492932</v>
+        <v>491685</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>545420</v>
+        <v>544925</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>349829</v>
+        <v>350402</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>47534</v>
+        <v>47639</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>114781</v>
+        <v>114130</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71762</v>
+        <v>71103</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>64933</v>
+        <v>65147</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>139566</v>
+        <v>142049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>109846</v>
+        <v>110064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>118028</v>
+        <v>118264</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>263497</v>
+        <v>262418</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>186551</v>
+        <v>186760</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61057</v>
+        <v>60882</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>132054</v>
+        <v>132138</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>80438</v>
+        <v>80427</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>79047</v>
+        <v>79132</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>159071</v>
+        <v>160906</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>129433</v>
+        <v>129588</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>137077</v>
+        <v>138398</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>288726</v>
+        <v>289228</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>207379</v>
+        <v>207148</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>542587</v>
+        <v>542664</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>878912</v>
+        <v>880100</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>673325</v>
+        <v>672801</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>890332</v>
+        <v>891180</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1359734</v>
+        <v>1361761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>948847</v>
+        <v>950669</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1443713</v>
+        <v>1444154</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2253434</v>
+        <v>2252177</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1633641</v>
+        <v>1633111</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>573754</v>
+        <v>572546</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>914587</v>
+        <v>914721</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>703703</v>
+        <v>703248</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>927185</v>
+        <v>924509</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1405125</v>
+        <v>1404062</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>993537</v>
+        <v>994539</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1490079</v>
+        <v>1492647</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2310154</v>
+        <v>2309177</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1687923</v>
+        <v>1687969</v>
       </c>
     </row>
     <row r="24">
